--- a/docs/requirements/Master Data Tables - Test Data/master-reg_center_machine_h.xlsx
+++ b/docs/requirements/Master Data Tables - Test Data/master-reg_center_machine_h.xlsx
@@ -1,25 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m1045476\Desktop\MDB Change\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m1045476\Desktop\New folder (2)\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{B971B7AA-F067-4F84-916E-C1A9AEFCA14E}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6950"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6950" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="master-reg_center_machine_h" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="179017"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="10">
   <si>
     <t>regcntr_id</t>
   </si>
@@ -54,7 +55,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -888,10 +889,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22:B30"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
@@ -1378,7 +1381,215 @@
         <v>9</v>
       </c>
     </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A22">
+        <v>10002</v>
+      </c>
+      <c r="B22">
+        <v>10021</v>
+      </c>
+      <c r="C22" t="s">
+        <v>7</v>
+      </c>
+      <c r="D22" t="b">
+        <v>1</v>
+      </c>
+      <c r="E22" t="s">
+        <v>8</v>
+      </c>
+      <c r="F22" t="s">
+        <v>9</v>
+      </c>
+      <c r="G22" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A23">
+        <v>10003</v>
+      </c>
+      <c r="B23">
+        <v>10022</v>
+      </c>
+      <c r="C23" t="s">
+        <v>7</v>
+      </c>
+      <c r="D23" t="b">
+        <v>1</v>
+      </c>
+      <c r="E23" t="s">
+        <v>8</v>
+      </c>
+      <c r="F23" t="s">
+        <v>9</v>
+      </c>
+      <c r="G23" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A24">
+        <v>10004</v>
+      </c>
+      <c r="B24">
+        <v>10023</v>
+      </c>
+      <c r="C24" t="s">
+        <v>7</v>
+      </c>
+      <c r="D24" t="b">
+        <v>1</v>
+      </c>
+      <c r="E24" t="s">
+        <v>8</v>
+      </c>
+      <c r="F24" t="s">
+        <v>9</v>
+      </c>
+      <c r="G24" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A25">
+        <v>10005</v>
+      </c>
+      <c r="B25">
+        <v>10024</v>
+      </c>
+      <c r="C25" t="s">
+        <v>7</v>
+      </c>
+      <c r="D25" t="b">
+        <v>1</v>
+      </c>
+      <c r="E25" t="s">
+        <v>8</v>
+      </c>
+      <c r="F25" t="s">
+        <v>9</v>
+      </c>
+      <c r="G25" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A26">
+        <v>10006</v>
+      </c>
+      <c r="B26">
+        <v>10025</v>
+      </c>
+      <c r="C26" t="s">
+        <v>7</v>
+      </c>
+      <c r="D26" t="b">
+        <v>1</v>
+      </c>
+      <c r="E26" t="s">
+        <v>8</v>
+      </c>
+      <c r="F26" t="s">
+        <v>9</v>
+      </c>
+      <c r="G26" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A27">
+        <v>10007</v>
+      </c>
+      <c r="B27">
+        <v>10026</v>
+      </c>
+      <c r="C27" t="s">
+        <v>7</v>
+      </c>
+      <c r="D27" t="b">
+        <v>1</v>
+      </c>
+      <c r="E27" t="s">
+        <v>8</v>
+      </c>
+      <c r="F27" t="s">
+        <v>9</v>
+      </c>
+      <c r="G27" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A28">
+        <v>10008</v>
+      </c>
+      <c r="B28">
+        <v>10027</v>
+      </c>
+      <c r="C28" t="s">
+        <v>7</v>
+      </c>
+      <c r="D28" t="b">
+        <v>1</v>
+      </c>
+      <c r="E28" t="s">
+        <v>8</v>
+      </c>
+      <c r="F28" t="s">
+        <v>9</v>
+      </c>
+      <c r="G28" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A29">
+        <v>10009</v>
+      </c>
+      <c r="B29">
+        <v>10028</v>
+      </c>
+      <c r="C29" t="s">
+        <v>7</v>
+      </c>
+      <c r="D29" t="b">
+        <v>1</v>
+      </c>
+      <c r="E29" t="s">
+        <v>8</v>
+      </c>
+      <c r="F29" t="s">
+        <v>9</v>
+      </c>
+      <c r="G29" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A30">
+        <v>10010</v>
+      </c>
+      <c r="B30">
+        <v>10029</v>
+      </c>
+      <c r="C30" t="s">
+        <v>7</v>
+      </c>
+      <c r="D30" t="b">
+        <v>1</v>
+      </c>
+      <c r="E30" t="s">
+        <v>8</v>
+      </c>
+      <c r="F30" t="s">
+        <v>9</v>
+      </c>
+      <c r="G30" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/docs/requirements/Master Data Tables - Test Data/master-reg_center_machine_h.xlsx
+++ b/docs/requirements/Master Data Tables - Test Data/master-reg_center_machine_h.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m1045476\Desktop\New folder (2)\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m1045476\Desktop\DB Updated Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{B971B7AA-F067-4F84-916E-C1A9AEFCA14E}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{FECE804B-40B0-45CB-ADA0-878FF2C31EAA}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6950" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="10">
   <si>
     <t>regcntr_id</t>
   </si>
@@ -890,10 +890,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G30"/>
+  <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22:B30"/>
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1588,6 +1588,52 @@
         <v>9</v>
       </c>
     </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A31">
+        <v>10001</v>
+      </c>
+      <c r="B31">
+        <v>10030</v>
+      </c>
+      <c r="C31" t="s">
+        <v>7</v>
+      </c>
+      <c r="D31" t="b">
+        <v>1</v>
+      </c>
+      <c r="E31" t="s">
+        <v>8</v>
+      </c>
+      <c r="F31" t="s">
+        <v>9</v>
+      </c>
+      <c r="G31" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A32">
+        <v>10001</v>
+      </c>
+      <c r="B32">
+        <v>10031</v>
+      </c>
+      <c r="C32" t="s">
+        <v>7</v>
+      </c>
+      <c r="D32" t="b">
+        <v>1</v>
+      </c>
+      <c r="E32" t="s">
+        <v>8</v>
+      </c>
+      <c r="F32" t="s">
+        <v>9</v>
+      </c>
+      <c r="G32" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/docs/requirements/Master Data Tables - Test Data/master-reg_center_machine_h.xlsx
+++ b/docs/requirements/Master Data Tables - Test Data/master-reg_center_machine_h.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m1045476\Desktop\DB Updated Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{FECE804B-40B0-45CB-ADA0-878FF2C31EAA}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{BCFCD899-1415-4F6F-A65D-768927DEAF84}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6950" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="10">
   <si>
     <t>regcntr_id</t>
   </si>
@@ -890,10 +890,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G32"/>
+  <dimension ref="A1:G33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1634,6 +1634,29 @@
         <v>9</v>
       </c>
     </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A33">
+        <v>10002</v>
+      </c>
+      <c r="B33">
+        <v>10032</v>
+      </c>
+      <c r="C33" t="s">
+        <v>7</v>
+      </c>
+      <c r="D33" t="b">
+        <v>1</v>
+      </c>
+      <c r="E33" t="s">
+        <v>8</v>
+      </c>
+      <c r="F33" t="s">
+        <v>9</v>
+      </c>
+      <c r="G33" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/docs/requirements/Master Data Tables - Test Data/master-reg_center_machine_h.xlsx
+++ b/docs/requirements/Master Data Tables - Test Data/master-reg_center_machine_h.xlsx
@@ -1,25 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m1045476\Desktop\MDB Change\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m1045476\Desktop\DB Updated Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{BCFCD899-1415-4F6F-A65D-768927DEAF84}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6950"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6950" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="master-reg_center_machine_h" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="179017"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="10">
   <si>
     <t>regcntr_id</t>
   </si>
@@ -54,7 +55,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -888,10 +889,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
@@ -1378,7 +1381,284 @@
         <v>9</v>
       </c>
     </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A22">
+        <v>10002</v>
+      </c>
+      <c r="B22">
+        <v>10021</v>
+      </c>
+      <c r="C22" t="s">
+        <v>7</v>
+      </c>
+      <c r="D22" t="b">
+        <v>1</v>
+      </c>
+      <c r="E22" t="s">
+        <v>8</v>
+      </c>
+      <c r="F22" t="s">
+        <v>9</v>
+      </c>
+      <c r="G22" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A23">
+        <v>10003</v>
+      </c>
+      <c r="B23">
+        <v>10022</v>
+      </c>
+      <c r="C23" t="s">
+        <v>7</v>
+      </c>
+      <c r="D23" t="b">
+        <v>1</v>
+      </c>
+      <c r="E23" t="s">
+        <v>8</v>
+      </c>
+      <c r="F23" t="s">
+        <v>9</v>
+      </c>
+      <c r="G23" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A24">
+        <v>10004</v>
+      </c>
+      <c r="B24">
+        <v>10023</v>
+      </c>
+      <c r="C24" t="s">
+        <v>7</v>
+      </c>
+      <c r="D24" t="b">
+        <v>1</v>
+      </c>
+      <c r="E24" t="s">
+        <v>8</v>
+      </c>
+      <c r="F24" t="s">
+        <v>9</v>
+      </c>
+      <c r="G24" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A25">
+        <v>10005</v>
+      </c>
+      <c r="B25">
+        <v>10024</v>
+      </c>
+      <c r="C25" t="s">
+        <v>7</v>
+      </c>
+      <c r="D25" t="b">
+        <v>1</v>
+      </c>
+      <c r="E25" t="s">
+        <v>8</v>
+      </c>
+      <c r="F25" t="s">
+        <v>9</v>
+      </c>
+      <c r="G25" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A26">
+        <v>10006</v>
+      </c>
+      <c r="B26">
+        <v>10025</v>
+      </c>
+      <c r="C26" t="s">
+        <v>7</v>
+      </c>
+      <c r="D26" t="b">
+        <v>1</v>
+      </c>
+      <c r="E26" t="s">
+        <v>8</v>
+      </c>
+      <c r="F26" t="s">
+        <v>9</v>
+      </c>
+      <c r="G26" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A27">
+        <v>10007</v>
+      </c>
+      <c r="B27">
+        <v>10026</v>
+      </c>
+      <c r="C27" t="s">
+        <v>7</v>
+      </c>
+      <c r="D27" t="b">
+        <v>1</v>
+      </c>
+      <c r="E27" t="s">
+        <v>8</v>
+      </c>
+      <c r="F27" t="s">
+        <v>9</v>
+      </c>
+      <c r="G27" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A28">
+        <v>10008</v>
+      </c>
+      <c r="B28">
+        <v>10027</v>
+      </c>
+      <c r="C28" t="s">
+        <v>7</v>
+      </c>
+      <c r="D28" t="b">
+        <v>1</v>
+      </c>
+      <c r="E28" t="s">
+        <v>8</v>
+      </c>
+      <c r="F28" t="s">
+        <v>9</v>
+      </c>
+      <c r="G28" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A29">
+        <v>10009</v>
+      </c>
+      <c r="B29">
+        <v>10028</v>
+      </c>
+      <c r="C29" t="s">
+        <v>7</v>
+      </c>
+      <c r="D29" t="b">
+        <v>1</v>
+      </c>
+      <c r="E29" t="s">
+        <v>8</v>
+      </c>
+      <c r="F29" t="s">
+        <v>9</v>
+      </c>
+      <c r="G29" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A30">
+        <v>10010</v>
+      </c>
+      <c r="B30">
+        <v>10029</v>
+      </c>
+      <c r="C30" t="s">
+        <v>7</v>
+      </c>
+      <c r="D30" t="b">
+        <v>1</v>
+      </c>
+      <c r="E30" t="s">
+        <v>8</v>
+      </c>
+      <c r="F30" t="s">
+        <v>9</v>
+      </c>
+      <c r="G30" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A31">
+        <v>10001</v>
+      </c>
+      <c r="B31">
+        <v>10030</v>
+      </c>
+      <c r="C31" t="s">
+        <v>7</v>
+      </c>
+      <c r="D31" t="b">
+        <v>1</v>
+      </c>
+      <c r="E31" t="s">
+        <v>8</v>
+      </c>
+      <c r="F31" t="s">
+        <v>9</v>
+      </c>
+      <c r="G31" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A32">
+        <v>10001</v>
+      </c>
+      <c r="B32">
+        <v>10031</v>
+      </c>
+      <c r="C32" t="s">
+        <v>7</v>
+      </c>
+      <c r="D32" t="b">
+        <v>1</v>
+      </c>
+      <c r="E32" t="s">
+        <v>8</v>
+      </c>
+      <c r="F32" t="s">
+        <v>9</v>
+      </c>
+      <c r="G32" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A33">
+        <v>10002</v>
+      </c>
+      <c r="B33">
+        <v>10032</v>
+      </c>
+      <c r="C33" t="s">
+        <v>7</v>
+      </c>
+      <c r="D33" t="b">
+        <v>1</v>
+      </c>
+      <c r="E33" t="s">
+        <v>8</v>
+      </c>
+      <c r="F33" t="s">
+        <v>9</v>
+      </c>
+      <c r="G33" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/docs/requirements/Master Data Tables - Test Data/master-reg_center_machine_h.xlsx
+++ b/docs/requirements/Master Data Tables - Test Data/master-reg_center_machine_h.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m1045476\Desktop\DB Updated Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{BCFCD899-1415-4F6F-A65D-768927DEAF84}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{C9F55B94-8AAA-4BEF-8371-E62685C2F72C}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6950" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -892,8 +892,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -946,7 +946,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3">
-        <v>10002</v>
+        <v>10003</v>
       </c>
       <c r="B3">
         <v>10002</v>
@@ -1452,7 +1452,7 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25">
-        <v>10005</v>
+        <v>10003</v>
       </c>
       <c r="B25">
         <v>10024</v>
